--- a/project/Test Case/SauceDemo.xlsx
+++ b/project/Test Case/SauceDemo.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f0a8cae45075979/Desktop/Assigments/project/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9785C503-4E78-430E-979D-687FE5E45832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C479F78B-6B57-4FF1-8D40-1790D4A39FFB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9785C503-4E78-430E-979D-687FE5E45832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4D5331-2034-4459-853D-7E226E9BC98E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E2C61D8-9282-4DC8-AAF6-3E0EC8EE7BBC}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8E2C61D8-9282-4DC8-AAF6-3E0EC8EE7BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="TEST CASE" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Case" sheetId="2" r:id="rId2"/>
+    <sheet name="Defect Report" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1047,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E02264F-4559-44E4-9FCD-4C04CC05089B}">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="81" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA208E43-1206-4D36-B92E-0FCF7AD00FD9}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2908,9 +2908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE92154B-0527-4B54-B9D0-798D88C40924}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/project/Test Case/SauceDemo.xlsx
+++ b/project/Test Case/SauceDemo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{9785C503-4E78-430E-979D-687FE5E45832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B4D5331-2034-4459-853D-7E226E9BC98E}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8E2C61D8-9282-4DC8-AAF6-3E0EC8EE7BBC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8E2C61D8-9282-4DC8-AAF6-3E0EC8EE7BBC}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -746,6 +746,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA208E43-1206-4D36-B92E-0FCF7AD00FD9}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2908,7 +2912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE92154B-0527-4B54-B9D0-798D88C40924}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
